--- a/doc/Berechnungen_ueberlegung.xlsx
+++ b/doc/Berechnungen_ueberlegung.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16665"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -144,10 +144,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -913,29 +918,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -952,7 +957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -971,7 +976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -990,7 +995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -1009,7 +1014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1000</v>
       </c>
@@ -1028,7 +1033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -1066,7 +1071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1000</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1000</v>
       </c>
@@ -1104,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1000</v>
       </c>
@@ -1123,7 +1128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1000</v>
       </c>
@@ -1142,7 +1147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1000</v>
       </c>
@@ -1161,7 +1166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1000</v>
       </c>
@@ -1180,7 +1185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1000</v>
       </c>
@@ -1199,7 +1204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1000</v>
       </c>
@@ -1218,12 +1223,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1000</v>
       </c>
@@ -1258,7 +1263,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1000</v>
       </c>
@@ -1276,7 +1281,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1000</v>
       </c>
@@ -1294,7 +1299,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1000</v>
       </c>
@@ -1312,7 +1317,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1000</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1000</v>
       </c>
@@ -1348,7 +1353,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1000</v>
       </c>
@@ -1366,7 +1371,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1000</v>
       </c>
@@ -1384,7 +1389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>-125</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1000</v>
       </c>
@@ -1420,7 +1425,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1000</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>-485</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1000</v>
       </c>
@@ -1456,7 +1461,7 @@
         <v>-680</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1000</v>
       </c>
@@ -1474,7 +1479,7 @@
         <v>-885</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1000</v>
       </c>
@@ -1492,8 +1497,8 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="138" customHeight="1"/>
-    <row r="47" spans="1:6">
+    <row r="40" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1513,7 +1518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.5</v>
       </c>
@@ -1534,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.5</v>
       </c>
@@ -1555,7 +1560,7 @@
         <v>12.786711852544423</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.5</v>
       </c>
@@ -1576,7 +1581,7 @@
         <v>18.083141320025128</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.5</v>
       </c>
@@ -1597,7 +1602,7 @@
         <v>22.147234590350102</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.5</v>
       </c>
@@ -1618,7 +1623,7 @@
         <v>25.573423705088846</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.5</v>
       </c>
@@ -1639,7 +1644,7 @@
         <v>28.591956910991595</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.5</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>31.320919526731654</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.5</v>
       </c>
@@ -1681,7 +1686,7 @@
         <v>33.830459648074545</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.5</v>
       </c>
@@ -1702,7 +1707,7 @@
         <v>36.166282640050255</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.5</v>
       </c>
@@ -1723,7 +1728,7 @@
         <v>38.360135557633271</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.5</v>
       </c>
@@ -1744,7 +1749,7 @@
         <v>40.435133238311458</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.5</v>
       </c>
@@ -1765,7 +1770,7 @@
         <v>42.408725517280054</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.5</v>
       </c>
@@ -1786,7 +1791,7 @@
         <v>44.294469180700204</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.5</v>
       </c>
@@ -1807,7 +1812,7 @@
         <v>46.10314522893205</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.5</v>
       </c>
@@ -1828,7 +1833,7 @@
         <v>47.843494855622751</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.5</v>
       </c>
@@ -1849,7 +1854,7 @@
         <v>49.522722057657532</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.5</v>
       </c>
@@ -1870,7 +1875,7 @@
         <v>51.146847410177692</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.5</v>
       </c>
@@ -1891,12 +1896,12 @@
         <v>52.720963572377926</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -1916,7 +1921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2E-3</v>
       </c>
@@ -1937,7 +1942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2E-3</v>
       </c>
@@ -1958,7 +1963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2E-3</v>
       </c>
@@ -1976,7 +1981,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2E-3</v>
       </c>
@@ -1994,7 +1999,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2E-3</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2E-3</v>
       </c>
@@ -2030,7 +2035,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2E-3</v>
       </c>
@@ -2048,7 +2053,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2E-3</v>
       </c>
@@ -2066,7 +2071,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2E-3</v>
       </c>
@@ -2084,13 +2089,13 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="77.25" customHeight="1"/>
-    <row r="80" spans="1:10">
+    <row r="79" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J80" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +2109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2119,7 +2124,7 @@
         <v>9.8687660112452011</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>18.997448112761244</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -2149,7 +2154,7 @@
         <v>26.852478349901766</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -2164,7 +2169,7 @@
         <v>33.201838513392445</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5</v>
       </c>
@@ -2179,7 +2184,7 @@
         <v>38.079707797788245</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -2194,7 +2199,7 @@
         <v>41.682730350607763</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>7</v>
       </c>
@@ -2209,7 +2214,7 @@
         <v>44.267582410113128</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8</v>
       </c>
@@ -2224,7 +2229,7 @@
         <v>46.083427720323563</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9</v>
       </c>
@@ -2239,7 +2244,7 @@
         <v>47.340300642313409</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>10</v>
       </c>
@@ -2254,7 +2259,7 @@
         <v>48.201379003790848</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>11</v>
       </c>
@@ -2269,7 +2274,7 @@
         <v>48.787156501572575</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>12</v>
       </c>
@@ -2284,7 +2289,7 @@
         <v>49.183742884684001</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>13</v>
       </c>
@@ -2299,7 +2304,7 @@
         <v>49.451370110054967</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
@@ -2314,7 +2319,7 @@
         <v>49.631576010056392</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>15</v>
       </c>
@@ -2329,7 +2334,7 @@
         <v>49.75273768433653</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>16</v>
       </c>
@@ -2344,7 +2349,7 @@
         <v>49.834119891982553</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>17</v>
       </c>
@@ -2359,7 +2364,7 @@
         <v>49.888746396713977</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>18</v>
       </c>
@@ -2374,7 +2379,7 @@
         <v>49.925397116616331</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -2403,7 +2408,7 @@
         <v>4.96701796000184</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -2418,7 +2423,7 @@
         <v>19.488371346958136</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3</v>
       </c>
@@ -2433,7 +2438,7 @@
         <v>42.533821694521485</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -2448,7 +2453,7 @@
         <v>72.688390082098408</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2463,7 +2468,7 @@
         <v>108.44520762075678</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>6</v>
       </c>
@@ -2478,7 +2483,7 @@
         <v>148.42224289850114</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>7</v>
       </c>
@@ -2493,7 +2498,7 @@
         <v>191.47141143200659</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>8</v>
       </c>
@@ -2508,7 +2513,7 @@
         <v>236.70153815062127</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>9</v>
       </c>
@@ -2523,7 +2528,7 @@
         <v>283.45247811206571</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>10</v>
       </c>
@@ -2538,7 +2543,7 @@
         <v>331.25068683946614</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>11</v>
       </c>
@@ -2553,7 +2558,7 @@
         <v>379.76385101193773</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>12</v>
       </c>
@@ -2568,7 +2573,7 @@
         <v>428.76222169458072</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>13</v>
       </c>
@@ -2583,7 +2588,7 @@
         <v>478.08855583742803</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>14</v>
       </c>
@@ -2598,7 +2603,7 @@
         <v>527.63596571675043</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>15</v>
       </c>
@@ -2613,7 +2618,7 @@
         <v>577.33212614444631</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>16</v>
       </c>
@@ -2628,7 +2633,7 @@
         <v>627.12824946352509</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>17</v>
       </c>
@@ -2643,7 +2648,7 @@
         <v>676.99149370012992</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>18</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>726.89978167297056</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>27</v>
       </c>
@@ -2680,7 +2685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
@@ -2697,7 +2702,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>

--- a/doc/Berechnungen_ueberlegung.xlsx
+++ b/doc/Berechnungen_ueberlegung.xlsx
@@ -918,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,7 +1880,7 @@
         <v>0.5</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C65">
         <v>1.2</v>
@@ -1889,11 +1889,11 @@
         <v>9.81</v>
       </c>
       <c r="E65">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F65">
         <f t="shared" si="3"/>
-        <v>52.720963572377926</v>
+        <v>76.720271115266542</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
